--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2825.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2825.xlsx
@@ -354,7 +354,7 @@
         <v>2.438570301396941</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.363686193313559</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2825.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2825.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175067438752929</v>
+        <v>1.043437242507935</v>
       </c>
       <c r="B1">
-        <v>2.438570301396941</v>
+        <v>2.417041301727295</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.225387096405029</v>
       </c>
       <c r="D1">
-        <v>2.363686193313559</v>
+        <v>2.303689241409302</v>
       </c>
       <c r="E1">
-        <v>1.235205450867461</v>
+        <v>1.323248028755188</v>
       </c>
     </row>
   </sheetData>
